--- a/qa/04.测试分享/测试总结/bug分享.xlsx
+++ b/qa/04.测试分享/测试总结/bug分享.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12170"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>更新日期</t>
   </si>
@@ -65,10 +65,104 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>添加分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-1023</t>
+  </si>
+  <si>
+    <t>道具tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击宠物已穿装备的装备icon弹出了装备tips界面</t>
+  </si>
+  <si>
+    <t>在商店界面点一个装备tips，回到宠物界面点装备tips会出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局性的功能，要注意在其他模块中一起测一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headnode用来挂伤害数字，lifebarnode用来挂血条，眩晕特效，嘲讽特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击晕buff刷新替换规则有误</t>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾狐的headnode过高导致攻击本体的伤害数字超出屏幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">buff刷新替代关系：
+1.非周期buff与hot：同id替代，不同id共存
+2.击晕：同id替代，不同id共存，但每次击晕时均要触发“眩晕“状态文字
+3.dot：同源同id刷新，不同源或不同id，最多共存3个，先进先出
+4.嘲讽：同时存在1个，后上的替换前一个
+5.护盾：相同类型的同时存在1个，后上的替换前一个
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation.xml中finish事件中的冗余内容需要清除</t>
+  </si>
+  <si>
+    <t>副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish事件里不要配东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物一次伤害受到多余3次dot添加时，uibuffview.cs报数组越界的错误</t>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组长度下，加上未判断bufffinish，导致越界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码里用到数组的地方，注意越界情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱数量300封后，每次上线时，再次受到1封邮件，此时邮件显示顺序有误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序时未判断邮件时间相同时的处理方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码里的条件判断，应注意覆盖全面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://192.168.199.122:8880/secure/Dashboard.jspa</t>
-  </si>
-  <si>
-    <t>添加分享</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -76,7 +170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,14 +185,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -122,6 +208,38 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -171,46 +289,65 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规_目录" xfId="1"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -522,24 +659,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D9:F42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="39.875" customWidth="1"/>
-    <col min="6" max="6" width="21.125" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" customWidth="1"/>
+    <col min="5" max="5" width="39.90625" customWidth="1"/>
+    <col min="6" max="6" width="21.08984375" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,215 +687,458 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="2">
         <v>42299</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="2"/>
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D27" s="2"/>
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" s="2"/>
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="2"/>
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="2"/>
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="2"/>
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="2"/>
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" s="2"/>
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="2"/>
       <c r="E36" s="3"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="2"/>
       <c r="E37" s="3"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="2"/>
       <c r="E38" s="3"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" s="2"/>
       <c r="E39" s="3"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D40" s="2"/>
       <c r="E40" s="3"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D41" s="2"/>
       <c r="E41" s="3"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D42" s="2"/>
       <c r="E42" s="3"/>
       <c r="F42" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D9" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="6"/>
-    <col min="4" max="4" width="54" style="7" customWidth="1"/>
-    <col min="5" max="5" width="29.875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="43.75" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="6" customWidth="1"/>
-    <col min="8" max="9" width="36.25" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="13.6328125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="54" style="6" customWidth="1"/>
+    <col min="5" max="5" width="45.453125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="43.7265625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.36328125" style="5" customWidth="1"/>
+    <col min="8" max="9" width="36.26953125" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="9" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>42306</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>42306</v>
+      </c>
+      <c r="B3" s="5">
+        <v>137</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="130.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>42306</v>
+      </c>
+      <c r="B4" s="5">
+        <v>349</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>42306</v>
+      </c>
+      <c r="B5" s="5">
+        <v>587</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>42306</v>
+      </c>
+      <c r="B6" s="5">
+        <v>645</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>42306</v>
+      </c>
+      <c r="B7" s="5">
+        <v>699</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://192.168.199.122:8880/browse/BG-1023"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -768,7 +1148,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -784,7 +1164,7 @@
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/qa/04.测试分享/测试总结/bug分享.xlsx
+++ b/qa/04.测试分享/测试总结/bug分享.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>更新日期</t>
   </si>
@@ -163,6 +163,34 @@
   </si>
   <si>
     <t>http://192.168.199.122:8880/secure/Dashboard.jspa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方大招释放完毕后，dazhaoprepare未被清除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff清除逻辑变更为怪物释放的当回合不清除buff，导致配置错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑修改可能会导致某些配置错误，应多注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地buff配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitIgnore表示直接命中，配置的时候validatorNum配成10进制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,6 +396,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>348854</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1524000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>614777</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13099654" y="2444750"/>
+          <a:ext cx="6615923" cy="2164967"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -659,7 +730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D9:F42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
@@ -851,9 +922,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -1009,11 +1080,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>42327</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1075</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>42327</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
@@ -1139,6 +1238,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/qa/04.测试分享/测试总结/bug分享.xlsx
+++ b/qa/04.测试分享/测试总结/bug分享.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12170" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="4" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>更新日期</t>
   </si>
@@ -191,6 +191,54 @@
   </si>
   <si>
     <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【副本内容】【怪物】xgLangren5使用物攻攻击副本boss触发被动后，对局卡死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪的弱点普通技能打不到弱点但是search能搜到，boss的弱点普通技能能打到，伤害反应的时候会传回目标弱点，如果伤害反应effect传回了弱点，并且effect的目标是己方的时候由于己方的wpGroup是null，所以在己方的wpGroup中搜不到传回的弱点，所以就挂了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前是好的，有一次因为某个原因改弱点改坏的，代码的关联性紧密，改的时候很容易让复用的地方有问题，测的时候要注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【AI】凯瑞斯boss不需要有状态切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss的弱点中如果没有涉及到冻结状态与其他状态切换的是不需要真正的状态切换，所以AI中不需要配置状态切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点设计修改，增加弱点切换表现导致，之前就算切了状态没有表现也不影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【AI】舞狮boss切换状态后AI计数逻辑错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI中根据怪物出手次数决定使用哪个技能，当状态切换之后，如果有回合数变化的需要重置出手次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解明确需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,10 +456,10 @@
       <xdr:rowOff>1524000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>614777</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>5967</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6825077</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>374267</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -430,6 +478,44 @@
         <a:xfrm>
           <a:off x="13099654" y="2444750"/>
           <a:ext cx="6615923" cy="2164967"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2686051</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>30776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14792325" y="5505451"/>
+          <a:ext cx="2524126" cy="1650025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -734,20 +820,20 @@
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="13.90625" customWidth="1"/>
-    <col min="5" max="5" width="39.90625" customWidth="1"/>
-    <col min="6" max="6" width="21.08984375" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="39.875" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D9" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="2">
         <v>42299</v>
       </c>
@@ -769,142 +855,142 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D26" s="2"/>
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="2"/>
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="2"/>
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="2"/>
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="2"/>
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="2"/>
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="2"/>
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="2"/>
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="2"/>
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="2"/>
       <c r="E36" s="3"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D37" s="2"/>
       <c r="E37" s="3"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="2"/>
       <c r="E38" s="3"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="2"/>
       <c r="E39" s="3"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D40" s="2"/>
       <c r="E40" s="3"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="2"/>
       <c r="E41" s="3"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D42" s="2"/>
       <c r="E42" s="3"/>
       <c r="F42" s="4"/>
@@ -923,24 +1009,25 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="5" customWidth="1"/>
     <col min="4" max="4" width="54" style="6" customWidth="1"/>
-    <col min="5" max="5" width="45.453125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="43.7265625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.36328125" style="5" customWidth="1"/>
-    <col min="8" max="9" width="36.26953125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="45.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="43.75" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="93.625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="36.25" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -966,7 +1053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>42306</v>
       </c>
@@ -989,7 +1076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>42306</v>
       </c>
@@ -1005,8 +1092,11 @@
       <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="130.5" x14ac:dyDescent="0.25">
+      <c r="G3" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>42306</v>
       </c>
@@ -1022,8 +1112,11 @@
       <c r="F4" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>42306</v>
       </c>
@@ -1039,8 +1132,11 @@
       <c r="F5" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>42306</v>
       </c>
@@ -1059,8 +1155,11 @@
       <c r="F6" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="G6" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>42306</v>
       </c>
@@ -1079,8 +1178,11 @@
       <c r="F7" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="G7" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>42327</v>
       </c>
@@ -1099,8 +1201,11 @@
       <c r="F8" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="G8" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>42327</v>
       </c>
@@ -1113,122 +1218,185 @@
       <c r="F9" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>42376</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1675</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>42376</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1711</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
+        <v>42376</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1658</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
     </row>
   </sheetData>
@@ -1248,7 +1416,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1264,7 +1432,7 @@
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/qa/04.测试分享/测试总结/bug分享.xlsx
+++ b/qa/04.测试分享/测试总结/bug分享.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>更新日期</t>
   </si>
@@ -239,6 +239,10 @@
   </si>
   <si>
     <t>了解明确需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetWpLifeRatio返回值是float和整型比较的时候，不同的存储方式会带来误差，死亡切冻结会满血，所以IsWpDead判断弱点状态时，不能判断转为冻结的死亡弱点是死亡的，getwpLifeLeft同理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +461,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>6825077</xdr:colOff>
+      <xdr:colOff>6539327</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>374267</xdr:rowOff>
     </xdr:to>
@@ -496,7 +500,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2686051</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>30776</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -516,6 +520,44 @@
         <a:xfrm>
           <a:off x="14792325" y="5505451"/>
           <a:ext cx="2524126" cy="1650025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1037267</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13315950" y="7092950"/>
+          <a:ext cx="7666667" cy="1942857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -820,20 +862,20 @@
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="39.875" customWidth="1"/>
-    <col min="6" max="6" width="21.125" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" customWidth="1"/>
+    <col min="5" max="5" width="39.90625" customWidth="1"/>
+    <col min="6" max="6" width="21.08984375" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D9" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
         <v>0</v>
       </c>
@@ -844,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="2">
         <v>42299</v>
       </c>
@@ -855,142 +897,142 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="2"/>
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D27" s="2"/>
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" s="2"/>
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="2"/>
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="2"/>
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="2"/>
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="2"/>
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" s="2"/>
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="2"/>
       <c r="E36" s="3"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="2"/>
       <c r="E37" s="3"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="2"/>
       <c r="E38" s="3"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" s="2"/>
       <c r="E39" s="3"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D40" s="2"/>
       <c r="E40" s="3"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D41" s="2"/>
       <c r="E41" s="3"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D42" s="2"/>
       <c r="E42" s="3"/>
       <c r="F42" s="4"/>
@@ -1010,24 +1052,24 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="5" customWidth="1"/>
     <col min="4" max="4" width="54" style="6" customWidth="1"/>
-    <col min="5" max="5" width="45.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="43.75" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="93.625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="36.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="45.453125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="43.7265625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.36328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="93.6328125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="36.26953125" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -1053,7 +1095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>42306</v>
       </c>
@@ -1076,7 +1118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>42306</v>
       </c>
@@ -1096,7 +1138,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="130.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>42306</v>
       </c>
@@ -1116,7 +1158,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>42306</v>
       </c>
@@ -1136,7 +1178,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>42306</v>
       </c>
@@ -1159,7 +1201,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>42306</v>
       </c>
@@ -1182,7 +1224,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>42327</v>
       </c>
@@ -1205,7 +1247,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>42327</v>
       </c>
@@ -1222,7 +1264,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="72.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>42376</v>
       </c>
@@ -1245,7 +1287,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>42376</v>
       </c>
@@ -1268,7 +1310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>42376</v>
       </c>
@@ -1291,112 +1333,115 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="58" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E13" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
   </sheetData>
@@ -1416,7 +1461,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1432,7 +1477,7 @@
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
